--- a/Calculations/Emissions Calculations.xlsx
+++ b/Calculations/Emissions Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedoo\OneDrive\Desktop\All\YOU and I\Year 4\Sus Computing\Coursework\2025-CW-iu22229\Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FABF1F8-03E3-4197-A14B-9C3BE8B2EFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804CB193-37A4-4D48-909E-71B35F143BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{8C31E949-CF5E-4C69-B609-E85559661391}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Network" sheetId="4" r:id="rId3"/>
     <sheet name="Datacentre" sheetId="5" r:id="rId4"/>
     <sheet name="Total" sheetId="6" r:id="rId5"/>
+    <sheet name="Variability" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="118">
   <si>
     <t>INPUTS</t>
   </si>
@@ -322,9 +323,6 @@
     <t>kgCO2eq/sec</t>
   </si>
   <si>
-    <t>Emissions GWP</t>
-  </si>
-  <si>
     <t>Energy for FU</t>
   </si>
   <si>
@@ -353,6 +351,72 @@
   </si>
   <si>
     <t>OPERATIONAL</t>
+  </si>
+  <si>
+    <t>Embodied GWP</t>
+  </si>
+  <si>
+    <t>VARIABILITY</t>
+  </si>
+  <si>
+    <t>secs</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>account for average human reaction speed</t>
+  </si>
+  <si>
+    <t>bytes</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Old metric, oldest data in webpage is from 2023</t>
+  </si>
+  <si>
+    <t>No given bounds</t>
+  </si>
+  <si>
+    <t>phone lifespan</t>
+  </si>
+  <si>
+    <t>phone market share</t>
+  </si>
+  <si>
+    <t>laptop lifespan</t>
+  </si>
+  <si>
+    <t>laptop market share</t>
+  </si>
+  <si>
+    <t>tokens to chars</t>
+  </si>
+  <si>
+    <t>chars to bytes</t>
+  </si>
+  <si>
+    <t>overhead</t>
+  </si>
+  <si>
+    <t>energy intensity</t>
+  </si>
+  <si>
+    <t>Query tokens</t>
+  </si>
+  <si>
+    <t>Response tokens</t>
+  </si>
+  <si>
+    <t>phone power usage</t>
+  </si>
+  <si>
+    <t>laptop power usage</t>
   </si>
 </sst>
 </file>
@@ -361,7 +425,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -387,15 +451,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -693,12 +763,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -827,6 +934,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -841,9 +1003,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -884,10 +1043,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,6 +1063,353 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1600"/>
+              <a:t>Embodied vs Operational Server Emissions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3E79-4B46-AECE-BAAA77FCA962}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3E79-4B46-AECE-BAAA77FCA962}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Datacentre!$E$10,Datacentre!$E$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Embodied GWP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Operational GWP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Datacentre!$F$10,Datacentre!$F$21)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9.2829196981603999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.12974555E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-938F-4513-A298-6C54BE5CD49B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -1049,6 +1552,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7C9F-43AC-8CBC-0C565624AF8A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -1337,7 +1845,611 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Variability Graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Variability!$M$7:$M$8,Variability!$M$12,Variability!$M$14,Variability!$M$16,Variability!$M$18,Variability!$M$22,Variability!$M$23,Variability!$M$25,Variability!$M$26)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Inference time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UK CO2 intensity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>phone lifespan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>phone power usage</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>laptop lifespan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>laptop power usage</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>chars to bytes</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>overhead</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Query tokens</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Response tokens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Variability!$R$7:$R$8,Variability!$R$12,Variability!$R$14,Variability!$R$16,Variability!$R$18,Variability!$R$22,Variability!$R$23,Variability!$R$25,Variability!$R$26)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.65354330708661412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.64088397790055252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.97274275979557068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCD4-46A6-9D52-2FDEB073549A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Variability!$M$7:$M$8,Variability!$M$12,Variability!$M$14,Variability!$M$16,Variability!$M$18,Variability!$M$22,Variability!$M$23,Variability!$M$25,Variability!$M$26)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Inference time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UK CO2 intensity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>phone lifespan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>phone power usage</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>laptop lifespan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>laptop power usage</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>chars to bytes</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>overhead</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Query tokens</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Response tokens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Variability!$S$7:$S$8,Variability!$S$12,Variability!$S$14,Variability!$S$16,Variability!$S$18,Variability!$S$22:$S$23,Variability!$S$25,Variability!$S$26)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3897637795275588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48066298342541436</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.31175468483816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CCD4-46A6-9D52-2FDEB073549A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1774515392"/>
+        <c:axId val="1774510112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1774515392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1774510112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1774510112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1774515392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1978,7 +3090,1219 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="300">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCDD5B30-3E20-9299-8486-F5B1D49166C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2017,6 +4341,64 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>479610</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1187822</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C7D9517-E605-4F13-E111-CC8AEEC43DCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2336,10 +4718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DDC896-E394-45A3-AECD-C08156416BF8}">
-  <dimension ref="C4:F30"/>
+  <dimension ref="C4:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2348,30 +4730,42 @@
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="67" t="s">
+    <row r="4" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="72" t="s">
+      <c r="H5" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="78"/>
+    </row>
+    <row r="6" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="74"/>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
+      <c r="H6" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" s="29" t="s">
         <v>15</v>
       </c>
@@ -2384,8 +4778,22 @@
       <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="H7" s="50">
+        <f>1.1-0.22</f>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="I7" s="2">
+        <f>5.85+0.22</f>
+        <v>6.0699999999999994</v>
+      </c>
+      <c r="J7" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8" s="28" t="s">
         <v>32</v>
       </c>
@@ -2398,16 +4806,29 @@
       <c r="F8" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="75" t="s">
+      <c r="H8" s="40">
+        <v>65</v>
+      </c>
+      <c r="I8" s="13">
+        <v>268</v>
+      </c>
+      <c r="J8" s="13" t="str">
+        <f>F8</f>
+        <v>gCO2eq/kWh</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77"/>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
         <v>17</v>
       </c>
@@ -2421,17 +4842,27 @@
       <c r="F10" s="35" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="69" t="s">
+      <c r="H10" s="40">
+        <v>31557600</v>
+      </c>
+      <c r="I10" s="13">
+        <v>31557600</v>
+      </c>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="66" t="s">
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="93"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="89" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="22" t="s">
@@ -2443,9 +4874,20 @@
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="66"/>
+      <c r="H12" s="39">
+        <f>15/12</f>
+        <v>1.25</v>
+      </c>
+      <c r="I12" s="3">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="J12" s="69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="89"/>
       <c r="D13" s="22" t="s">
         <v>6</v>
       </c>
@@ -2455,9 +4897,18 @@
       <c r="F13" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="66"/>
+      <c r="H13" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="89"/>
       <c r="D14" s="22" t="s">
         <v>13</v>
       </c>
@@ -2467,9 +4918,18 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="66"/>
+      <c r="H14" s="71">
+        <v>2</v>
+      </c>
+      <c r="I14" s="72">
+        <v>5</v>
+      </c>
+      <c r="J14" s="69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="89"/>
       <c r="D15" s="22" t="s">
         <v>20</v>
       </c>
@@ -2479,9 +4939,20 @@
       <c r="F15" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="66" t="s">
+      <c r="H15" s="71">
+        <f>E15-2.71</f>
+        <v>67.800000000000011</v>
+      </c>
+      <c r="I15" s="72">
+        <f>E15</f>
+        <v>70.510000000000005</v>
+      </c>
+      <c r="J15" s="69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="89" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="22" t="s">
@@ -2493,9 +4964,18 @@
       <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="66"/>
+      <c r="H16" s="71">
+        <v>3</v>
+      </c>
+      <c r="I16" s="72">
+        <v>5</v>
+      </c>
+      <c r="J16" s="69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="89"/>
       <c r="D17" s="22" t="s">
         <v>6</v>
       </c>
@@ -2505,9 +4985,18 @@
       <c r="F17" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="66"/>
+      <c r="H17" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="89"/>
       <c r="D18" s="22" t="s">
         <v>13</v>
       </c>
@@ -2517,9 +5006,18 @@
       <c r="F18" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="78"/>
+      <c r="H18" s="71">
+        <v>20</v>
+      </c>
+      <c r="I18" s="72">
+        <v>100</v>
+      </c>
+      <c r="J18" s="69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="100"/>
       <c r="D19" s="25" t="s">
         <v>20</v>
       </c>
@@ -2529,17 +5027,29 @@
       <c r="F19" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="62" t="s">
+      <c r="H19" s="40">
+        <v>29.49</v>
+      </c>
+      <c r="I19" s="13">
+        <v>29.49</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="64"/>
-    </row>
-    <row r="21" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="65" t="s">
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="87"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="3:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="88" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="24" t="s">
@@ -2551,9 +5061,16 @@
       <c r="F21" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="66"/>
+      <c r="H21" s="39">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="69"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="89"/>
       <c r="D22" s="22" t="s">
         <v>24</v>
       </c>
@@ -2563,9 +5080,18 @@
       <c r="F22" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="66"/>
+      <c r="H22" s="39">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4</v>
+      </c>
+      <c r="J22" s="69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="89"/>
       <c r="D23" s="22" t="s">
         <v>26</v>
       </c>
@@ -2575,9 +5101,18 @@
       <c r="F23" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="66"/>
+      <c r="H23" s="39">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="89"/>
       <c r="D24" s="22" t="s">
         <v>30</v>
       </c>
@@ -2587,8 +5122,12 @@
       <c r="F24" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="H24" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C25" s="7" t="s">
         <v>28</v>
       </c>
@@ -2601,8 +5140,17 @@
       <c r="F25" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="H25" s="39">
+        <v>10</v>
+      </c>
+      <c r="I25" s="3">
+        <v>37</v>
+      </c>
+      <c r="J25" s="69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="28" t="s">
         <v>29</v>
       </c>
@@ -2615,16 +5163,28 @@
       <c r="F26" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="62" t="s">
+      <c r="H26" s="40">
+        <v>16</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1357</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="64"/>
-    </row>
-    <row r="28" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="3:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="6" t="s">
         <v>41</v>
       </c>
@@ -2637,8 +5197,13 @@
       <c r="F28" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="H28" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="80"/>
+      <c r="J28" s="69"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C29" s="7" t="s">
         <v>43</v>
       </c>
@@ -2651,8 +5216,11 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H29" s="81"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="69"/>
+    </row>
+    <row r="30" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="27" t="s">
         <v>46</v>
       </c>
@@ -2665,9 +5233,14 @@
       <c r="F30" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="H30" s="83"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H28:I30"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="C27:F27"/>
@@ -2699,11 +5272,11 @@
   <sheetData>
     <row r="1" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E3" s="32" t="s">
@@ -2805,11 +5378,11 @@
     </row>
     <row r="11" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="102"/>
     </row>
     <row r="13" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E13" s="32" t="s">
@@ -2923,11 +5496,11 @@
       <c r="F22" s="46"/>
     </row>
     <row r="23" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="80"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="102"/>
     </row>
     <row r="24" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E24" s="32" t="s">
@@ -3014,11 +5587,11 @@
   <sheetData>
     <row r="1" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E3" s="19" t="s">
@@ -3106,11 +5679,11 @@
       <c r="F10" s="46"/>
     </row>
     <row r="11" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
     </row>
     <row r="12" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E12" s="19" t="s">
@@ -3203,11 +5776,11 @@
       <c r="E19" s="22"/>
     </row>
     <row r="20" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
     </row>
     <row r="21" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E21" s="19" t="s">
@@ -3304,10 +5877,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BFE2CF-BE3B-448E-BDE1-88A2C6BA73BE}">
-  <dimension ref="E2:G25"/>
+  <dimension ref="E2:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3319,11 +5892,11 @@
   <sheetData>
     <row r="2" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E4" s="32" t="s">
@@ -3398,7 +5971,7 @@
     </row>
     <row r="10" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="47" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F10" s="48">
         <f>F7 * F8 * F9</f>
@@ -3410,11 +5983,11 @@
     </row>
     <row r="11" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
+      <c r="E12" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="101"/>
+      <c r="G12" s="102"/>
     </row>
     <row r="13" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E13" s="32" t="s">
@@ -3463,31 +6036,31 @@
         <v>sec/FU</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E17" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17">
         <f>60*60</f>
         <v>3600</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E18" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="54">
         <f>F14*F15*(F16/F17)</f>
         <v>0.11766550000000001</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="39" t="str" cm="1">
         <f t="array" ref="E19:G19">Network!E26:G26</f>
         <v>UK CO2 intensity</v>
@@ -3499,20 +6072,20 @@
         <v>gCO2eq/kWh</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E20" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="12">
         <v>1000</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E21" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="43">
         <f>(F18/F20) * F19</f>
@@ -3521,16 +6094,25 @@
       <c r="G21" s="9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="67" t="s">
+      <c r="K21" s="63">
+        <f>F10/F25</f>
+        <v>0.3035580707563989</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K22" s="63">
+        <f>F21/F25</f>
+        <v>0.69644192924360115</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="80"/>
-    </row>
-    <row r="24" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="101"/>
+      <c r="G23" s="102"/>
+    </row>
+    <row r="24" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E24" s="32" t="s">
         <v>47</v>
       </c>
@@ -3541,9 +6123,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E25" s="55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="45">
         <f>F21+F10</f>
@@ -3560,15 +6142,16 @@
     <mergeCell ref="E23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E216258F-10A5-45F1-A853-A9D18FB75957}">
-  <dimension ref="E2:G18"/>
+  <dimension ref="E2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3580,11 +6163,11 @@
   <sheetData>
     <row r="2" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E4" s="19" t="s">
@@ -3602,7 +6185,7 @@
         <f t="array" ref="E5:G5">Devices!E28:G28</f>
         <v>Device GWP</v>
       </c>
-      <c r="F5" s="81">
+      <c r="F5" s="46">
         <v>3.1433940730600557E-3</v>
       </c>
       <c r="G5" s="3" t="str">
@@ -3614,7 +6197,7 @@
         <f t="array" ref="E6:G6">Network!E27:G27</f>
         <v>Network GWP</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="46">
         <v>1.3540971999999999E-4</v>
       </c>
       <c r="G6" s="3" t="str">
@@ -3626,7 +6209,7 @@
         <f t="array" ref="E7:G7">Datacentre!E25:G25</f>
         <v>Datacentre GWP</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="62">
         <v>3.0580375198160398E-2</v>
       </c>
       <c r="G7" s="13" t="str">
@@ -3635,7 +6218,7 @@
     </row>
     <row r="8" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E8" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="43">
         <f>F5+F6+F7</f>
@@ -3647,33 +6230,77 @@
       </c>
     </row>
     <row r="11" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F11" s="83">
+      <c r="F11" s="63">
         <f>F5/F8</f>
         <v>9.2837279777962856E-2</v>
       </c>
     </row>
     <row r="12" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F12" s="83">
+      <c r="F12" s="63">
         <f>F6/F8</f>
         <v>3.9992026987751578E-3</v>
       </c>
     </row>
     <row r="13" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F13" s="83">
+      <c r="F13" s="63">
         <f>F7/F8</f>
         <v>0.90316351752326185</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
       <c r="F17" s="44">
         <f>F13/F11</f>
         <v>9.7284573576836877</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="84">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F18" s="64">
         <f>F13/F12</f>
         <v>225.83589418957814</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="46">
+        <v>0.10547153041150716</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="46"/>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="46">
+        <v>6.9630384142811037E-3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="46"/>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F26" s="103">
+        <f>F23/F8</f>
+        <v>3.1150055480924532</v>
+      </c>
+      <c r="H26" s="44">
+        <f>(F23-F8)/F24</f>
+        <v>10.284641152260582</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F27" s="103">
+        <f>(F24-F8)/F8</f>
+        <v>-0.79435300495364669</v>
+      </c>
+      <c r="H27" s="44">
+        <f>(F24-F8)/F23</f>
+        <v>-0.25500853616138419</v>
       </c>
     </row>
   </sheetData>
@@ -3683,4 +6310,992 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEFB07B-652A-417C-8901-299AE00EDE8E}">
+  <dimension ref="C4:S30"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S30" sqref="C5:S30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="90"/>
+      <c r="E5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="78"/>
+    </row>
+    <row r="6" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
+      <c r="H6" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2.54</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="50">
+        <f>1.1-0.22</f>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="I7" s="2">
+        <f>5.85+0.22</f>
+        <v>6.0699999999999994</v>
+      </c>
+      <c r="J7" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="73">
+        <f>H7</f>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="O7" s="73">
+        <f>E7</f>
+        <v>2.54</v>
+      </c>
+      <c r="P7" s="73">
+        <f>I7</f>
+        <v>6.0699999999999994</v>
+      </c>
+      <c r="R7" s="76">
+        <f>(N7-O7)/O7</f>
+        <v>-0.65354330708661412</v>
+      </c>
+      <c r="S7" s="76">
+        <f>(P7-O7)/O7</f>
+        <v>1.3897637795275588</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="12">
+        <v>181</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="40">
+        <v>65</v>
+      </c>
+      <c r="I8" s="13">
+        <v>268</v>
+      </c>
+      <c r="J8" s="13" t="str">
+        <f>F8</f>
+        <v>gCO2eq/kWh</v>
+      </c>
+      <c r="M8" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N30" si="0">H8</f>
+        <v>65</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:O30" si="1">E8</f>
+        <v>181</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8:P30" si="2">I8</f>
+        <v>268</v>
+      </c>
+      <c r="R8" s="76">
+        <f t="shared" ref="R8:R30" si="3">(N8-O8)/O8</f>
+        <v>-0.64088397790055252</v>
+      </c>
+      <c r="S8" s="76">
+        <f t="shared" ref="S8:S30" si="4">(P8-O8)/O8</f>
+        <v>0.48066298342541436</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="R9" s="65" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S9" s="65" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="15">
+        <f>60*60*24*365.25</f>
+        <v>31557600</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="40">
+        <v>31557600</v>
+      </c>
+      <c r="I10" s="13">
+        <v>31557600</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>31557600</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>31557600</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>31557600</v>
+      </c>
+      <c r="R10" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C11" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="93"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C12" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="39">
+        <f>15/12</f>
+        <v>1.25</v>
+      </c>
+      <c r="I12" s="3">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="J12" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R12" s="76">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+      <c r="S12" s="76">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C13" s="89"/>
+      <c r="D13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>??</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="2"/>
+        <v>??</v>
+      </c>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C14" s="89"/>
+      <c r="D14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="71">
+        <v>2</v>
+      </c>
+      <c r="I14" s="72">
+        <v>5</v>
+      </c>
+      <c r="J14" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R14" s="76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="76">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C15" s="89"/>
+      <c r="D15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>70.510000000000005</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="71">
+        <f>E15-2.71</f>
+        <v>67.800000000000011</v>
+      </c>
+      <c r="I15" s="72">
+        <f>E15</f>
+        <v>70.510000000000005</v>
+      </c>
+      <c r="J15" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>67.800000000000011</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>70.510000000000005</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>70.510000000000005</v>
+      </c>
+      <c r="R15" s="65">
+        <f t="shared" si="3"/>
+        <v>-3.8434264643312913E-2</v>
+      </c>
+      <c r="S15" s="65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="71">
+        <v>3</v>
+      </c>
+      <c r="I16" s="72">
+        <v>5</v>
+      </c>
+      <c r="J16" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R16" s="76">
+        <f t="shared" si="3"/>
+        <v>-0.25</v>
+      </c>
+      <c r="S16" s="76">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C17" s="89"/>
+      <c r="D17" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>??</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="2"/>
+        <v>??</v>
+      </c>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C18" s="89"/>
+      <c r="D18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="71">
+        <v>20</v>
+      </c>
+      <c r="I18" s="72">
+        <v>100</v>
+      </c>
+      <c r="J18" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R18" s="76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="76">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C19" s="100"/>
+      <c r="D19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="12">
+        <v>29.49</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="40">
+        <v>29.49</v>
+      </c>
+      <c r="I19" s="13">
+        <v>29.49</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>29.49</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>29.49</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>29.49</v>
+      </c>
+      <c r="R19" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C20" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="87"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+    </row>
+    <row r="21" spans="3:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="10">
+        <v>4</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="39">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="69"/>
+      <c r="M21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="2"/>
+        <v>??</v>
+      </c>
+      <c r="R21" s="65">
+        <f t="shared" si="3"/>
+        <v>-0.75</v>
+      </c>
+      <c r="S21" s="65" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C22" s="89"/>
+      <c r="D22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="39">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4</v>
+      </c>
+      <c r="J22" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="M22" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="R22" s="76">
+        <f t="shared" si="3"/>
+        <v>-0.75</v>
+      </c>
+      <c r="S22" s="76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C23" s="89"/>
+      <c r="D23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>1.5</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="39">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R23" s="76">
+        <f t="shared" si="3"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="S23" s="76">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="89"/>
+      <c r="D24" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="M24" t="s">
+        <v>113</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v>Old metric, oldest data in webpage is from 2023</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="P24" t="str">
+        <f>I24</f>
+        <v>Old metric, oldest data in webpage is from 2023</v>
+      </c>
+      <c r="R24" s="65" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S24" s="65" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="39">
+        <v>10</v>
+      </c>
+      <c r="I25" s="3">
+        <v>37</v>
+      </c>
+      <c r="J25" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="R25" s="76">
+        <f t="shared" si="3"/>
+        <v>-0.44444444444444442</v>
+      </c>
+      <c r="S25" s="76">
+        <f t="shared" si="4"/>
+        <v>1.0555555555555556</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C26" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="12">
+        <v>587</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="40">
+        <v>16</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1357</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>587</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>1357</v>
+      </c>
+      <c r="R26" s="76">
+        <f t="shared" si="3"/>
+        <v>-0.97274275979557068</v>
+      </c>
+      <c r="S26" s="76">
+        <f t="shared" si="4"/>
+        <v>1.31175468483816</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C27" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+    </row>
+    <row r="28" spans="3:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28">
+        <v>692</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="80"/>
+      <c r="J28" s="69"/>
+      <c r="N28" t="str">
+        <f t="shared" si="0"/>
+        <v>No given bounds</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>692</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="65" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S28" s="65">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>153</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="81"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="69"/>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="65">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="S29" s="65">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="83"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="70"/>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="65">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="S30" s="65">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H28:I30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>